--- a/eody_data/timeline_all_metrics.xlsx
+++ b/eody_data/timeline_all_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\eody_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{987CD24B-526B-4FDF-BDCC-7D201667D6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD20477-D1FE-41FC-9CB6-27D42B90CF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
@@ -445,11 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +457,10 @@
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +548,11 @@
       <c r="AC1" s="1">
         <v>43914</v>
       </c>
+      <c r="AD1" s="1">
+        <v>43915</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -637,8 +640,11 @@
       <c r="AC2">
         <v>743</v>
       </c>
+      <c r="AD2">
+        <v>835</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -726,8 +732,11 @@
       <c r="AC3">
         <v>20</v>
       </c>
+      <c r="AD3">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -815,8 +824,11 @@
       <c r="AC4">
         <v>32</v>
       </c>
+      <c r="AD4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -904,8 +916,11 @@
       <c r="AC5">
         <v>9071</v>
       </c>
+      <c r="AD5">
+        <v>10495</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -993,8 +1008,11 @@
       <c r="AC6">
         <v>714</v>
       </c>
+      <c r="AD6">
+        <v>815</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1082,8 +1100,11 @@
       <c r="AC7">
         <v>677</v>
       </c>
+      <c r="AD7">
+        <v>773</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1171,8 +1192,11 @@
       <c r="AC8">
         <v>731</v>
       </c>
+      <c r="AD8">
+        <v>828</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1260,8 +1284,11 @@
       <c r="AC9">
         <v>406</v>
       </c>
+      <c r="AD9">
+        <v>462</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1349,8 +1376,11 @@
       <c r="AC10">
         <v>325</v>
       </c>
+      <c r="AD10">
+        <v>366</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1438,8 +1468,11 @@
       <c r="AC11">
         <v>677</v>
       </c>
+      <c r="AD11">
+        <v>769</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1527,8 +1560,11 @@
       <c r="AC12">
         <v>140</v>
       </c>
+      <c r="AD12">
+        <v>161</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1616,8 +1652,11 @@
       <c r="AC13">
         <v>329</v>
       </c>
+      <c r="AD13">
+        <v>370</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1705,8 +1744,11 @@
       <c r="AC14">
         <v>181</v>
       </c>
+      <c r="AD14">
+        <v>210</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1794,8 +1836,11 @@
       <c r="AC15">
         <v>27</v>
       </c>
+      <c r="AD15">
+        <v>28</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1883,8 +1928,11 @@
       <c r="AC16">
         <v>191</v>
       </c>
+      <c r="AD16">
+        <v>225</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1972,8 +2020,11 @@
       <c r="AC17">
         <v>134</v>
       </c>
+      <c r="AD17">
+        <v>139</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2061,8 +2112,11 @@
       <c r="AC18">
         <v>59</v>
       </c>
+      <c r="AD18">
+        <v>69</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2150,8 +2204,11 @@
       <c r="AC19">
         <v>113</v>
       </c>
+      <c r="AD19">
+        <v>136</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2238,6 +2295,9 @@
       </c>
       <c r="AC20">
         <v>85</v>
+      </c>
+      <c r="AD20">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
